--- a/Visualization/data/Yearly_Patent_Totals.xlsx
+++ b/Visualization/data/Yearly_Patent_Totals.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>申请年份</t>
   </si>
   <si>
     <t>专利数量</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
   </si>
 </sst>
 </file>
@@ -32,7 +41,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +51,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -526,142 +542,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1009,35 +1027,71 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="14.1111111111111" style="1"/>
     <col min="5" max="6" width="12.8888888888889"/>
+    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="11" max="11" width="12.8888888888889"/>
+    <col min="13" max="13" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2013</v>
       </c>
       <c r="B2">
         <v>938</v>
       </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5">
+        <f>H2/B2</f>
+        <v>0.0426439232409382</v>
+      </c>
+      <c r="J2">
+        <v>44</v>
+      </c>
+      <c r="K2" s="5">
+        <f>J2/B2</f>
+        <v>0.046908315565032</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5">
+        <f>L2/B2</f>
+        <v>0.00213219616204691</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -1049,8 +1103,29 @@
         <v>-0.0255863539445629</v>
       </c>
       <c r="E3" s="1"/>
+      <c r="H3">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I10" si="0">H3/B3</f>
+        <v>0.037199124726477</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K11" si="1">J3/B3</f>
+        <v>0.0196936542669584</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M11" si="2">L3/B3</f>
+        <v>0.00328227571115974</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -1058,11 +1133,32 @@
         <v>1425</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C11" si="0">(B4-B3)/B3</f>
+        <f t="shared" ref="C4:C11" si="3">(B4-B3)/B3</f>
         <v>0.559080962800875</v>
       </c>
+      <c r="H4">
+        <v>36</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.0252631578947368</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.0203508771929825</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.00350877192982456</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -1070,19 +1166,40 @@
         <v>1594</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.11859649122807</v>
       </c>
       <c r="E5">
         <f>AVERAGE(C3:C7)</f>
         <v>0.202054846785247</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <f>AVERAGE(C3:C11)</f>
         <v>0.0911280193013514</v>
       </c>
+      <c r="H5">
+        <v>37</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.0232120451693852</v>
+      </c>
+      <c r="J5">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.0131744040150565</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.00250941028858218</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -1090,11 +1207,32 @@
         <v>1890</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.185696361355082</v>
+      </c>
+      <c r="H6">
+        <v>39</v>
+      </c>
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>0.185696361355082</v>
+        <v>0.0206349206349206</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.0185185185185185</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.00423280423280423</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -1102,11 +1240,32 @@
         <v>2216</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.172486772486772</v>
+      </c>
+      <c r="H7">
+        <v>42</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>0.172486772486772</v>
+        <v>0.0189530685920578</v>
+      </c>
+      <c r="J7">
+        <v>69</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.0311371841155235</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.00631768953068592</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -1114,11 +1273,32 @@
         <v>2146</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.0315884476534296</v>
+      </c>
+      <c r="H8">
+        <v>54</v>
+      </c>
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
-        <v>-0.0315884476534296</v>
+        <v>0.0251630941286114</v>
+      </c>
+      <c r="J8">
+        <v>52</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.0242311276794035</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.00372786579683131</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -1126,11 +1306,32 @@
         <v>1872</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.127679403541473</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>-0.127679403541473</v>
+        <v>0.0106837606837607</v>
+      </c>
+      <c r="J9">
+        <v>29</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.015491452991453</v>
+      </c>
+      <c r="L9">
+        <v>14</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.00747863247863248</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1138,11 +1339,32 @@
         <v>1955</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.0443376068376068</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>0.0443376068376068</v>
+        <v>0.00562659846547315</v>
+      </c>
+      <c r="J10">
+        <v>28</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.0143222506393862</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.0051150895140665</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -1150,8 +1372,36 @@
         <v>1808</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.0751918158567775</v>
+      </c>
+      <c r="J11">
+        <v>24</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.0132743362831858</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.00276548672566372</v>
+      </c>
+    </row>
+    <row r="13" spans="9:13">
+      <c r="I13" s="5">
+        <f>AVERAGE(I2:I10)</f>
+        <v>0.023264410392929</v>
+      </c>
+      <c r="K13" s="5">
+        <f>AVERAGE(K2:K11)</f>
+        <v>0.02171021212675</v>
+      </c>
+      <c r="M13" s="5">
+        <f>AVERAGE(M2:M11)</f>
+        <v>0.00410702223702975</v>
       </c>
     </row>
   </sheetData>
